--- a/Debenhams - Jan 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Jan 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,22 +457,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customs_description</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>colour</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>attribute_summary</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -544,7 +544,7 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -569,7 +569,7 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -590,32 +590,24 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>MB139</t>
-        </is>
-      </c>
+      <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Burgundy</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Size: 14</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>152</v>
+        <v>485</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I5" t="n">
         <v>152</v>
@@ -623,22 +615,26 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>MB139</t>
+        </is>
+      </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Burgundy</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -647,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -655,19 +651,19 @@
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -676,16 +672,20 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -695,13 +695,13 @@
         <v>152</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>152</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -732,14 +732,10 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -761,100 +757,104 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I11" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>awl-284</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Size: 12</t>
-        </is>
-      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr"/>
       <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1127</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>268</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" t="n">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="I13" t="n">
-        <v>134</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>awl-284</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -872,14 +872,14 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -897,14 +897,14 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17">
@@ -922,14 +922,14 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -938,27 +938,23 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
+      <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -967,7 +963,7 @@
         <v>134</v>
       </c>
       <c r="I18" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -976,23 +972,23 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I19" t="n">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -1000,19 +996,19 @@
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Oxblood</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1021,45 +1017,45 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>268</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Size: 20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I21" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1081,21 +1077,17 @@
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Taupe</t>
-        </is>
-      </c>
+      <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1104,23 +1096,27 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Oxblood</t>
+        </is>
+      </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1129,65 +1125,61 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>134</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Taupe</t>
+        </is>
+      </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>awl-blazer</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="I26" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1196,73 +1188,81 @@
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>Size: 20</t>
-        </is>
-      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>268</v>
+        <v>2791</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>134</v>
+        <v>559</v>
       </c>
       <c r="I28" t="n">
-        <v>134</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>awl-blazer</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I29" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1271,7 +1271,7 @@
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Size: 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1293,21 +1293,17 @@
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
+      <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1316,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>125</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
@@ -1325,23 +1321,23 @@
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Size: 12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I32" t="n">
-        <v>375</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -1350,7 +1346,7 @@
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1372,26 +1368,30 @@
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Size: 18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>250</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -1400,14 +1400,14 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Size: 22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>286</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1425,14 +1425,14 @@
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Size: 24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1441,31 +1441,23 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>152</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>awl-n30</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Size: 10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1474,7 +1466,7 @@
         <v>125</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -1483,7 +1475,7 @@
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Size: 14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1493,13 +1485,13 @@
         <v>125</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>125</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1508,93 +1500,539 @@
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Size: 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr"/>
-      <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F40" t="n">
-        <v>7149</v>
+        <v>2368</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>1958</v>
+        <v>384</v>
       </c>
       <c r="I40" t="n">
-        <v>5191</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>awl-n30</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>125</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>125</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>125</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>125</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>375</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>375</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AWL-281</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>485</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MB139</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>480</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>319</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>awl-284</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1266</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>420</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>411</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Taupe</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>425</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>awl-blazer</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>929</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1439</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>awl-n30</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>375</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr"/>
+      <c r="C55" s="1" t="inlineStr"/>
+      <c r="D55" s="1" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>51</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7149</v>
+      </c>
+      <c r="G55" t="n">
+        <v>14</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1958</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A39"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="B12:B25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A2:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B41:B44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Debenhams - Jan 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Jan 2024 - Leather Jackets.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,60 +1653,40 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>AWL-281</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="B45" s="1" t="inlineStr"/>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="1" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F45" t="n">
-        <v>485</v>
+        <v>7149</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1958</v>
       </c>
       <c r="I45" t="n">
-        <v>485</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>MB139</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1715,322 +1695,29 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>319</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>awl-284</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1266</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>420</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>411</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>Taupe</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>425</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>awl-blazer</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>929</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1439</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>awl-n30</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>375</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr"/>
-      <c r="C55" s="1" t="inlineStr"/>
-      <c r="D55" s="1" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>51</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7149</v>
-      </c>
-      <c r="G55" t="n">
-        <v>14</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1958</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="n"/>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="20">
     <mergeCell ref="C34:C39"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A2:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
     <mergeCell ref="B14:B28"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="B29:B40"/>
     <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A2:A44"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B41:B44"/>
   </mergeCells>

--- a/Debenhams - Jan 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Jan 2024 - Leather Jackets.xlsx
@@ -957,13 +957,13 @@
         <v>134</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>134</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1223,13 +1223,13 @@
         <v>2791</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>559</v>
+        <v>425</v>
       </c>
       <c r="I28" t="n">
-        <v>2232</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="29">
@@ -1331,13 +1331,13 @@
         <v>268</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>134</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
@@ -1535,13 +1535,13 @@
         <v>2368</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>384</v>
+        <v>250</v>
       </c>
       <c r="I40" t="n">
-        <v>1984</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="41">
@@ -1668,13 +1668,13 @@
         <v>7149</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>1958</v>
+        <v>1690</v>
       </c>
       <c r="I45" t="n">
-        <v>5191</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="46">

--- a/Debenhams - Jan 2024 - Leather Jackets.xlsx
+++ b/Debenhams - Jan 2024 - Leather Jackets.xlsx
@@ -957,13 +957,13 @@
         <v>134</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I18" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1223,13 +1223,13 @@
         <v>2791</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>425</v>
+        <v>559</v>
       </c>
       <c r="I28" t="n">
-        <v>2366</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="29">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -1529,10 +1529,10 @@
       </c>
       <c r="D40" s="1" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>2368</v>
+        <v>2234</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1541,7 +1541,7 @@
         <v>250</v>
       </c>
       <c r="I40" t="n">
-        <v>2118</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="41">
@@ -1662,19 +1662,19 @@
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" t="n">
-        <v>7149</v>
+        <v>7015</v>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>1690</v>
+        <v>1824</v>
       </c>
       <c r="I45" t="n">
-        <v>5459</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="46">
